--- a/PCB/CommonPCB_v1.1M/PCB_BOM.xlsx
+++ b/PCB/CommonPCB_v1.1M/PCB_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>Designator</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>240 Ohm (Adj)</t>
+  </si>
+  <si>
+    <t>1K</t>
   </si>
 </sst>
 </file>
@@ -689,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1104,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>44</v>
